--- a/data/trans_camb/P25A_N_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_N_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-3,8</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>10,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,09</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 9,43</t>
+          <t>-6,66; 11,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 9,25</t>
+          <t>-5,85; 9,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 9,62</t>
+          <t>-9,0; 8,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 2,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 4,17</t>
+          <t>-12,74; 6,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 4,75</t>
+          <t>-13,48; 5,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,47; 4,38</t>
+          <t>-0,74; 23,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 6,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,58; 5,16</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 14,67</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>26,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,88%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-17,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,79%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>-13,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,91%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,11%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>33,57%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 124,49</t>
+          <t>-37,66; 147,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 114,21</t>
+          <t>-32,96; 131,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 128,58</t>
+          <t>-53,98; 103,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 21,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 11,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,8; 17,58</t>
+          <t>-37,62; 29,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 27,29</t>
+          <t>-39,94; 21,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,05; 25,59</t>
+          <t>-2,75; 106,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,61; 29,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,5; 40,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-29,16; 30,46</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 82,97</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>-3,08</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,89</t>
+          <t>-4,9; 2,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 3,18</t>
+          <t>-4,72; 2,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,58</t>
+          <t>-2,58; 6,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 12,62</t>
+          <t>-8,23; 1,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,77</t>
+          <t>-4,92; 4,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,4</t>
+          <t>-0,7; 11,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 9,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 0,64</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,07; 2,46</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 6,97</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>-16,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>-11,5%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>104,78%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>51,45%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,82%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,36%</t>
+          <t>37,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-5,83%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>31,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,06; 64,39</t>
+          <t>-48,6; 43,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 70,67</t>
+          <t>-45,57; 41,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,42; 199,39</t>
+          <t>-25,68; 108,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-43,48; 2,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 26,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 94,78</t>
+          <t>-44,59; 13,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 9,38</t>
+          <t>-27,93; 42,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 27,0</t>
+          <t>-3,4; 94,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,75; 104,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-41,73; 7,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 25,82</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 71,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,62</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,23</t>
+          <t>-8,47; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 1,32</t>
+          <t>-7,92; 1,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; -0,31</t>
+          <t>-4,68; 6,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 7,55</t>
+          <t>-3,54; 4,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 2,17</t>
+          <t>-3,39; 4,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,21</t>
+          <t>0,12; 9,6</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 2,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 1,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 1,66</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,88; 6,24</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,75%</t>
+          <t>-34,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-27,74%</t>
+          <t>-32,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-52,84%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-14,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-13,7%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>31,52%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,07; 41,22</t>
+          <t>-63,89; 18,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,3; 22,91</t>
+          <t>-60,36; 23,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,28; -3,55</t>
+          <t>-38,88; 91,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 77,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 71,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 123,12</t>
+          <t>-33,24; 83,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 33,68</t>
+          <t>-30,77; 66,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 34,4</t>
+          <t>-0,74; 153,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 34,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-42,52; 26,56</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-39,01; 24,68</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 84,96</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3,85</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,6</t>
+          <t>-3,26; 5,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,91</t>
+          <t>-2,92; 5,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 8,3</t>
+          <t>-5,03; 5,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,63</t>
+          <t>1,65; 13,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 3,76</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 7,71</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,04%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,46%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>33,4%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 39,75</t>
+          <t>-38,1; 98,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 35,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,18; 89,55</t>
+          <t>-34,68; 107,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 8,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 13,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,96; 58,01</t>
+          <t>-28,75; 41,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 12,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 15,43</t>
+          <t>7,99; 95,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 56,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-23,31; 38,2</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 75,32</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,07</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4,37</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 2,24</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 2,48</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 4,14</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 1,5</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 2,52</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 10,72</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,36; 1,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 1,92</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 6,51</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16,77%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-7,87%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>46,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,26%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,62%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>36,41%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,92; 33,47</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-25,84; 34,7</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,63; 60,02</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-23,29; 10,81</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,0; 17,84</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>23,68; 77,55</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; 10,7</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-14,14; 17,36</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>17,25; 60,63</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
